--- a/data/PVRP/results/All_Long_Solutions.xlsx
+++ b/data/PVRP/results/All_Long_Solutions.xlsx
@@ -9,12 +9,13 @@
     <sheet name="pr4.xlsx" r:id="rId3" sheetId="1"/>
     <sheet name="pr6.xlsx" r:id="rId4" sheetId="2"/>
     <sheet name="p14.xlsx" r:id="rId5" sheetId="3"/>
+    <sheet name="p1.xlsx" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="32">
   <si>
     <t>Filename</t>
   </si>
@@ -105,19 +106,55 @@
   <si>
     <t>p14.xlsx</t>
   </si>
+  <si>
+    <t>SmallestPolarAngleShortestDistToDepot</t>
+  </si>
+  <si>
+    <t>p1.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -205,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -237,6 +274,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -32765,16 +32822,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.11328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.07421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.2890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.7734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.41796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.484375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="36.8828125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.39453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.9140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.96484375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="16">
+      <c r="A1" t="s" s="22">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -32782,15 +32839,15 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="15">
+      <c r="A2" t="s" s="21">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="15">
+      <c r="A3" t="s" s="21">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -32798,7 +32855,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="15">
+      <c r="A4" t="s" s="21">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -32806,15 +32863,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="15">
+      <c r="A5" t="s" s="21">
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1205.459228515625</v>
+        <v>1572.315673828125</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="15">
+      <c r="A6" t="s" s="21">
         <v>8</v>
       </c>
       <c r="B6" t="n">
@@ -32822,11 +32879,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="15">
+      <c r="A7" t="s" s="21">
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>184.10918365478517</v>
+        <v>191.44631439208985</v>
       </c>
     </row>
     <row r="8"/>
@@ -32834,71 +32891,71 @@
     <row r="10"/>
     <row r="11"/>
     <row r="12">
-      <c r="A12" t="s" s="13">
+      <c r="A12" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="B12" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C12" t="s" s="13">
+      <c r="B12" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="s" s="19">
         <v>11</v>
       </c>
-      <c r="D12" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="E12" t="s" s="13">
+      <c r="D12" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="F12" t="n" s="14">
+      <c r="F12" t="n" s="20">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="13">
+      <c r="A13" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="B13" t="n" s="14">
+      <c r="B13" t="n" s="20">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="13">
+      <c r="A14" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="B14" t="n" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="C14" t="s" s="13">
+      <c r="B14" t="n" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="D14" t="n" s="14">
+      <c r="D14" t="n" s="20">
         <v>20.0</v>
       </c>
-      <c r="E14" t="s" s="13">
+      <c r="E14" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="F14" t="n" s="17">
+      <c r="F14" t="n" s="23">
         <v>15.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="13">
+      <c r="A15" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="B15" t="n" s="14">
-        <v>23.630831298828124</v>
-      </c>
-      <c r="C15" t="s" s="13">
+      <c r="B15" t="n" s="20">
+        <v>23.327359008789063</v>
+      </c>
+      <c r="C15" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D15" t="n" s="14">
+      <c r="D15" t="n" s="20">
         <v>9999999.0</v>
       </c>
-      <c r="E15" t="s" s="13">
+      <c r="E15" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="F15" t="n" s="17">
-        <v>181.54156494140625</v>
+      <c r="F15" t="n" s="23">
+        <v>166.36795043945312</v>
       </c>
     </row>
     <row r="16"/>
@@ -32944,27 +33001,27 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17.0</v>
+        <v>2.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C19" t="n">
-        <v>30.000329066007488</v>
+        <v>10.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.26181123624650626</v>
+        <v>0.0</v>
       </c>
       <c r="E19" t="n">
-        <v>30.000329066007488</v>
+        <v>10.0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -32973,10 +33030,10 @@
         <v>39.99998500819576</v>
       </c>
       <c r="D20" t="n">
-        <v>0.523598991986449</v>
+        <v>-0.523598991986449</v>
       </c>
       <c r="E20" t="n">
-        <v>13.48201679550272</v>
+        <v>31.736080789052142</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
@@ -32984,42 +33041,42 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="B21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C21" t="n">
-        <v>20.000425280445473</v>
+        <v>29.99971137071545</v>
       </c>
       <c r="D21" t="n">
-        <v>0.52358649911387</v>
+        <v>2.356194490192345</v>
       </c>
       <c r="E21" t="n">
-        <v>19.99955973087185</v>
+        <v>69.41311423700189</v>
       </c>
       <c r="F21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="B22" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C22" t="n">
-        <v>50.0</v>
+        <v>39.99998500819576</v>
       </c>
       <c r="D22" t="n">
-        <v>3.141592653589793</v>
+        <v>2.6179936616033443</v>
       </c>
       <c r="E22" t="n">
-        <v>68.05965711013731</v>
+        <v>13.482675472070188</v>
       </c>
       <c r="F22" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -33036,7 +33093,7 @@
         <v>3.141592653589793</v>
       </c>
       <c r="E23" t="n">
-        <v>40.0</v>
+        <v>31.736080789052142</v>
       </c>
       <c r="F23" t="n">
         <v>4.0</v>
@@ -33063,87 +33120,87 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="13">
+      <c r="A25" t="s" s="19">
         <v>27</v>
       </c>
-      <c r="B25" s="17" t="n">
+      <c r="B25" s="23" t="n">
         <f>SUM(B18:B24)</f>
         <v>15.0</v>
       </c>
-      <c r="E25" s="17" t="n">
+      <c r="E25" s="23" t="n">
         <f>SUM(E18:E24)</f>
-        <v>181.54156270251937</v>
+        <v>166.36795128717637</v>
       </c>
     </row>
     <row r="26"/>
     <row r="27"/>
     <row r="28"/>
     <row r="29">
-      <c r="A29" t="s" s="13">
+      <c r="A29" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="B29" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="s" s="13">
+      <c r="B29" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="C29" t="s" s="19">
         <v>11</v>
       </c>
-      <c r="D29" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="s" s="13">
+      <c r="D29" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="F29" t="n" s="14">
+      <c r="F29" t="n" s="20">
         <v>0.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="13">
+      <c r="A30" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="B30" t="n" s="14">
+      <c r="B30" t="n" s="20">
         <v>1.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="13">
+      <c r="A31" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="B31" t="n" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="C31" t="s" s="13">
+      <c r="B31" t="n" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C31" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="D31" t="n" s="14">
+      <c r="D31" t="n" s="20">
         <v>20.0</v>
       </c>
-      <c r="E31" t="s" s="13">
+      <c r="E31" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="F31" t="n" s="17">
-        <v>15.0</v>
+      <c r="F31" t="n" s="23">
+        <v>14.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="13">
+      <c r="A32" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="B32" t="n" s="14">
-        <v>22.362647705078125</v>
-      </c>
-      <c r="C32" t="s" s="13">
+      <c r="B32" t="n" s="20">
+        <v>23.247771911621093</v>
+      </c>
+      <c r="C32" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D32" t="n" s="14">
+      <c r="D32" t="n" s="20">
         <v>9999999.0</v>
       </c>
-      <c r="E32" t="s" s="13">
+      <c r="E32" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="F32" t="n" s="17">
-        <v>118.13238525390625</v>
+      <c r="F32" t="n" s="23">
+        <v>162.3885955810547</v>
       </c>
     </row>
     <row r="33"/>
@@ -33189,19 +33246,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="B36" t="n">
         <v>2.0</v>
       </c>
       <c r="C36" t="n">
-        <v>20.000425280445473</v>
+        <v>39.99998500819576</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.618006154475923</v>
+        <v>0.523598991986449</v>
       </c>
       <c r="E36" t="n">
-        <v>20.000425280445473</v>
+        <v>39.99998500819576</v>
       </c>
       <c r="F36" t="n">
         <v>2.0</v>
@@ -33209,42 +33266,2080 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="B37" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C37" t="n">
-        <v>39.99998500819576</v>
+        <v>10.0</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.6179936616033443</v>
+        <v>0.0</v>
       </c>
       <c r="E37" t="n">
-        <v>19.99955973087185</v>
+        <v>31.736080789052142</v>
       </c>
       <c r="F37" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>39.99998500819576</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-2.6179936616033443</v>
+      </c>
+      <c r="E38" t="n">
+        <v>48.916446901451515</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.141592653589793</v>
+      </c>
+      <c r="E39" t="n">
+        <v>31.736080789052142</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="19">
+        <v>27</v>
+      </c>
+      <c r="B41" s="23" t="n">
+        <f>SUM(B35:B40)</f>
+        <v>14.0</v>
+      </c>
+      <c r="E41" s="23" t="n">
+        <f>SUM(E35:E40)</f>
+        <v>162.38859348775156</v>
+      </c>
+    </row>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45">
+      <c r="A45" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="B45" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="C45" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D45" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="s" s="19">
+        <v>12</v>
+      </c>
+      <c r="F45" t="n" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="19">
+        <v>13</v>
+      </c>
+      <c r="B46" t="n" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="B47" t="n" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C47" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="D47" t="n" s="20">
+        <v>20.0</v>
+      </c>
+      <c r="E47" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="F47" t="n" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="B48" t="n" s="20">
+        <v>23.653694458007813</v>
+      </c>
+      <c r="C48" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="D48" t="n" s="20">
+        <v>9999999.0</v>
+      </c>
+      <c r="E48" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="F48" t="n" s="23">
+        <v>182.68472290039062</v>
+      </c>
+    </row>
+    <row r="49"/>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>39.99998500819576</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.523598991986449</v>
+      </c>
+      <c r="E53" t="n">
+        <v>31.736080789052142</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>29.99971137071545</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="E54" t="n">
+        <v>43.3453859758444</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>39.99998500819576</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.6179936616033443</v>
+      </c>
+      <c r="E55" t="n">
+        <v>55.867168181046274</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.141592653589793</v>
+      </c>
+      <c r="E56" t="n">
+        <v>31.736080789052142</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="19">
+        <v>27</v>
+      </c>
+      <c r="B58" s="23" t="n">
+        <f>SUM(B51:B57)</f>
+        <v>15.0</v>
+      </c>
+      <c r="E58" s="23" t="n">
+        <f>SUM(E51:E57)</f>
+        <v>182.68471573499497</v>
+      </c>
+    </row>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62">
+      <c r="A62" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="B62" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="C62" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D62" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E62" t="s" s="19">
+        <v>12</v>
+      </c>
+      <c r="F62" t="n" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="19">
+        <v>13</v>
+      </c>
+      <c r="B63" t="n" s="20">
         <v>3.0</v>
       </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="B64" t="n" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C64" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="D64" t="n" s="20">
+        <v>20.0</v>
+      </c>
+      <c r="E64" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="F64" t="n" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="B65" t="n" s="20">
+        <v>23.58988525390625</v>
+      </c>
+      <c r="C65" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="D65" t="n" s="20">
+        <v>9999999.0</v>
+      </c>
+      <c r="E65" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="F65" t="n" s="23">
+        <v>179.4942626953125</v>
+      </c>
+    </row>
+    <row r="66"/>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>39.99998500819576</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.523598991986449</v>
+      </c>
+      <c r="E69" t="n">
+        <v>39.99998500819576</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>31.736080789052142</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>39.99998500819576</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-2.6179936616033443</v>
+      </c>
+      <c r="E71" t="n">
+        <v>48.916446901451515</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>30.000329066007488</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.879781417343287</v>
+      </c>
+      <c r="E72" t="n">
+        <v>28.336632936766943</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.141592653589793</v>
+      </c>
+      <c r="E73" t="n">
+        <v>20.505114758307275</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="19">
+        <v>27</v>
+      </c>
+      <c r="B75" s="23" t="n">
+        <f>SUM(B68:B74)</f>
+        <v>15.0</v>
+      </c>
+      <c r="E75" s="23" t="n">
+        <f>SUM(E68:E74)</f>
+        <v>179.49426039377363</v>
+      </c>
+    </row>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79">
+      <c r="A79" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="B79" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="C79" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D79" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E79" t="s" s="19">
+        <v>12</v>
+      </c>
+      <c r="F79" t="n" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="19">
+        <v>13</v>
+      </c>
+      <c r="B80" t="n" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="B81" t="n" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="C81" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="D81" t="n" s="20">
+        <v>20.0</v>
+      </c>
+      <c r="E81" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="F81" t="n" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="B82" t="n" s="20">
+        <v>24.130289306640627</v>
+      </c>
+      <c r="C82" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="D82" t="n" s="20">
+        <v>9999999.0</v>
+      </c>
+      <c r="E82" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="F82" t="n" s="23">
+        <v>206.51446533203125</v>
+      </c>
+    </row>
+    <row r="83"/>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>30.000329066007488</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.26181123624650626</v>
+      </c>
+      <c r="E87" t="n">
+        <v>22.41025836490556</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>20.000425280445473</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.52358649911387</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11.869326411370851</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3.141592653589793</v>
+      </c>
+      <c r="E89" t="n">
+        <v>68.05965711013731</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>20.000425280445473</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-2.618006154475923</v>
+      </c>
+      <c r="E90" t="n">
+        <v>34.174802074743624</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>20.000425280445473</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="19">
+        <v>27</v>
+      </c>
+      <c r="B92" s="23" t="n">
+        <f>SUM(B85:B91)</f>
+        <v>15.0</v>
+      </c>
+      <c r="E92" s="23" t="n">
+        <f>SUM(E85:E91)</f>
+        <v>206.51446924160285</v>
+      </c>
+    </row>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96">
+      <c r="A96" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="B96" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="C96" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D96" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E96" t="s" s="19">
+        <v>12</v>
+      </c>
+      <c r="F96" t="n" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="19">
+        <v>13</v>
+      </c>
+      <c r="B97" t="n" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="B98" t="n" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="C98" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="D98" t="n" s="20">
+        <v>20.0</v>
+      </c>
+      <c r="E98" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="F98" t="n" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="B99" t="n" s="20">
+        <v>24.798732299804687</v>
+      </c>
+      <c r="C99" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="D99" t="n" s="20">
+        <v>9999999.0</v>
+      </c>
+      <c r="E99" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="F99" t="n" s="23">
+        <v>239.93661499023438</v>
+      </c>
+    </row>
+    <row r="100"/>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>20.000425280445473</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.52358649911387</v>
+      </c>
+      <c r="E104" t="n">
+        <v>34.174802074743624</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>29.99971137071545</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-2.356194490192345</v>
+      </c>
+      <c r="E105" t="n">
+        <v>40.13228617790428</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>20.000425280445473</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.618006154475923</v>
+      </c>
+      <c r="E106" t="n">
+        <v>31.454713376291092</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.141592653589793</v>
+      </c>
+      <c r="E107" t="n">
+        <v>34.174802074743624</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="19">
+        <v>27</v>
+      </c>
+      <c r="B109" s="23" t="n">
+        <f>SUM(B102:B108)</f>
+        <v>15.0</v>
+      </c>
+      <c r="E109" s="23" t="n">
+        <f>SUM(E102:E108)</f>
+        <v>239.93660370368264</v>
+      </c>
+    </row>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113">
+      <c r="A113" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="B113" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="C113" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D113" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E113" t="s" s="19">
+        <v>12</v>
+      </c>
+      <c r="F113" t="n" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="19">
+        <v>13</v>
+      </c>
+      <c r="B114" t="n" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="B115" t="n" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="C115" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="D115" t="n" s="20">
+        <v>20.0</v>
+      </c>
+      <c r="E115" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="F115" t="n" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="B116" t="n" s="20">
+        <v>24.176405639648436</v>
+      </c>
+      <c r="C116" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="D116" t="n" s="20">
+        <v>9999999.0</v>
+      </c>
+      <c r="E116" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="F116" t="n" s="23">
+        <v>208.82028198242188</v>
+      </c>
+    </row>
+    <row r="117"/>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>30.000329066007488</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.26181123624650626</v>
+      </c>
+      <c r="E120" t="n">
+        <v>30.000329066007488</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>22.41025836490556</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>20.000425280445473</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.52358649911387</v>
+      </c>
+      <c r="E122" t="n">
+        <v>34.174802074743624</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3.141592653589793</v>
+      </c>
+      <c r="E123" t="n">
+        <v>68.05965711013731</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>20.000425280445473</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-2.618006154475923</v>
+      </c>
+      <c r="E124" t="n">
+        <v>34.174802074743624</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>20.000425280445473</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="19">
+        <v>27</v>
+      </c>
+      <c r="B126" s="23" t="n">
+        <f>SUM(B119:B125)</f>
+        <v>15.0</v>
+      </c>
+      <c r="E126" s="23" t="n">
+        <f>SUM(E119:E125)</f>
+        <v>208.82027397098312</v>
+      </c>
+    </row>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130">
+      <c r="A130" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="B130" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="C130" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D130" t="n" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E130" t="s" s="19">
+        <v>12</v>
+      </c>
+      <c r="F130" t="n" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="19">
+        <v>13</v>
+      </c>
+      <c r="B131" t="n" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="B132" t="n" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="C132" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="D132" t="n" s="20">
+        <v>20.0</v>
+      </c>
+      <c r="E132" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="F132" t="n" s="23">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="B133" t="n" s="20">
+        <v>24.522176513671873</v>
+      </c>
+      <c r="C133" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="D133" t="n" s="20">
+        <v>9999999.0</v>
+      </c>
+      <c r="E133" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="F133" t="n" s="23">
+        <v>226.10882568359375</v>
+      </c>
+    </row>
+    <row r="134"/>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" t="s">
+        <v>23</v>
+      </c>
+      <c r="E135" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>20.000425280445473</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.52358649911387</v>
+      </c>
+      <c r="E137" t="n">
+        <v>20.000425280445473</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>34.174802074743624</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>29.99971137071545</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.7853981633974483</v>
+      </c>
+      <c r="E139" t="n">
+        <v>35.75867374412852</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>20.000425280445473</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.618006154475923</v>
+      </c>
+      <c r="E140" t="n">
+        <v>49.58951872744975</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3.141592653589793</v>
+      </c>
+      <c r="E141" t="n">
+        <v>34.174802074743624</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>30.000329066007488</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-2.879781417343287</v>
+      </c>
+      <c r="E142" t="n">
+        <v>22.41025836490556</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>30.000329066007488</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="19">
+        <v>27</v>
+      </c>
+      <c r="B144" s="23" t="n">
+        <f>SUM(B136:B143)</f>
+        <v>16.0</v>
+      </c>
+      <c r="E144" s="23" t="n">
+        <f>SUM(E136:E143)</f>
+        <v>226.10880933242402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.39453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.9140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.796875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.2109375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="28">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="27">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="27">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="27">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="27">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="27">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="27">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" t="s" s="25">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="s" s="25">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n" s="26">
+        <v>30.0</v>
+      </c>
+      <c r="E12" t="s" s="25">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n" s="26">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="25">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="25">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="s" s="25">
+        <v>15</v>
+      </c>
+      <c r="D14" t="n" s="26">
+        <v>160.0</v>
+      </c>
+      <c r="E14" t="s" s="25">
+        <v>16</v>
+      </c>
+      <c r="F14" t="n" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="25">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="D15" t="n" s="26">
+        <v>9999999.0</v>
+      </c>
+      <c r="E15" t="s" s="25">
+        <v>19</v>
+      </c>
+      <c r="F15" t="n" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="25">
+        <v>27</v>
+      </c>
+      <c r="B21" s="30" t="n">
+        <f>SUM(B18:B20)</f>
+        <v>160.0</v>
+      </c>
+      <c r="E21" s="29" t="n">
+        <f>SUM(E18:E20)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25">
+      <c r="A25" t="s" s="25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="C25" t="s" s="25">
+        <v>11</v>
+      </c>
+      <c r="D25" t="n" s="26">
+        <v>30.0</v>
+      </c>
+      <c r="E25" t="s" s="25">
+        <v>12</v>
+      </c>
+      <c r="F25" t="n" s="26">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="25">
+        <v>13</v>
+      </c>
+      <c r="B26" t="n" s="26">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="25">
+        <v>14</v>
+      </c>
+      <c r="B27" t="n" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="C27" t="s" s="25">
+        <v>15</v>
+      </c>
+      <c r="D27" t="n" s="26">
+        <v>160.0</v>
+      </c>
+      <c r="E27" t="s" s="25">
+        <v>16</v>
+      </c>
+      <c r="F27" t="n" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="25">
+        <v>17</v>
+      </c>
+      <c r="B28" t="n" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="C28" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="D28" t="n" s="26">
+        <v>9999999.0</v>
+      </c>
+      <c r="E28" t="s" s="25">
+        <v>19</v>
+      </c>
+      <c r="F28" t="n" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>11.40175425099138</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.6610431688506868</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11.40175425099138</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>39.408120990476064</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-2.518393323655727</v>
+      </c>
+      <c r="E33" t="n">
+        <v>44.01136216933077</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32.55764119219941</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-2.312743594800814</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10.04987562112089</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>28.160255680657446</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1.464060654145761</v>
+      </c>
+      <c r="E35" t="n">
+        <v>25.317977802344327</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>22.02271554554524</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.8818719385800352</v>
+      </c>
+      <c r="E36" t="n">
+        <v>15.556349186104045</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>25.059928172283335</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.49934672168013006</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9.433981132056603</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>14.0</v>
+      </c>
       <c r="B38" t="n">
-        <v>5.0</v>
+        <v>21.0</v>
       </c>
       <c r="C38" t="n">
-        <v>50.0</v>
+        <v>18.110770276274835</v>
       </c>
       <c r="D38" t="n">
-        <v>3.141592653589793</v>
+        <v>-0.11065722117389563</v>
       </c>
       <c r="E38" t="n">
-        <v>25.217036237882557</v>
+        <v>10.770329614269007</v>
       </c>
       <c r="F38" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
@@ -33252,16 +35347,16 @@
         <v>13.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="C39" t="n">
-        <v>30.000329066007488</v>
+        <v>29.154759474226502</v>
       </c>
       <c r="D39" t="n">
-        <v>-2.879781417343287</v>
+        <v>0.5404195002705842</v>
       </c>
       <c r="E39" t="n">
-        <v>22.41025836490556</v>
+        <v>18.384776310850235</v>
       </c>
       <c r="F39" t="n">
         <v>1.0</v>
@@ -33269,224 +35364,224 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="B40" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="C40" t="n">
-        <v>10.0</v>
+        <v>31.906112267087632</v>
       </c>
       <c r="D40" t="n">
-        <v>3.141592653589793</v>
+        <v>1.0088747645380813</v>
       </c>
       <c r="E40" t="n">
-        <v>20.505114758307275</v>
+        <v>14.422205101855956</v>
       </c>
       <c r="F40" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>14.142135623730951</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.356194490192345</v>
+      </c>
+      <c r="E41" t="n">
+        <v>31.906112267087632</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.677945044588987</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12.041594578792296</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="13">
+      <c r="B43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="25">
         <v>27</v>
       </c>
-      <c r="B42" s="17" t="n">
-        <f>SUM(B35:B41)</f>
-        <v>15.0</v>
-      </c>
-      <c r="E42" s="17" t="n">
-        <f>SUM(E35:E41)</f>
-        <v>118.1323943724127</v>
-      </c>
-    </row>
-    <row r="43"/>
-    <row r="44"/>
+      <c r="B44" s="30" t="n">
+        <f>SUM(B31:B43)</f>
+        <v>160.0</v>
+      </c>
+      <c r="E44" s="30" t="n">
+        <f>SUM(E31:E43)</f>
+        <v>205.5323860123029</v>
+      </c>
+    </row>
     <row r="45"/>
-    <row r="46">
-      <c r="A46" t="s" s="13">
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48">
+      <c r="A48" t="s" s="25">
         <v>10</v>
       </c>
-      <c r="B46" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C46" t="s" s="13">
+      <c r="B48" t="n" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="C48" t="s" s="25">
         <v>11</v>
       </c>
-      <c r="D46" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="s" s="13">
+      <c r="D48" t="n" s="26">
+        <v>30.0</v>
+      </c>
+      <c r="E48" t="s" s="25">
         <v>12</v>
       </c>
-      <c r="F46" t="n" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="13">
+      <c r="F48" t="n" s="26">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="25">
         <v>13</v>
       </c>
-      <c r="B47" t="n" s="14">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="13">
+      <c r="B49" t="n" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="25">
         <v>14</v>
       </c>
-      <c r="B48" t="n" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="C48" t="s" s="13">
+      <c r="B50" t="n" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="C50" t="s" s="25">
         <v>15</v>
       </c>
-      <c r="D48" t="n" s="14">
-        <v>20.0</v>
-      </c>
-      <c r="E48" t="s" s="13">
+      <c r="D50" t="n" s="26">
+        <v>160.0</v>
+      </c>
+      <c r="E50" t="s" s="25">
         <v>16</v>
       </c>
-      <c r="F48" t="n" s="17">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="13">
+      <c r="F50" t="n" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="25">
         <v>17</v>
       </c>
-      <c r="B49" t="n" s="14">
-        <v>23.555759887695313</v>
-      </c>
-      <c r="C49" t="s" s="13">
+      <c r="B51" t="n" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="C51" t="s" s="25">
         <v>18</v>
       </c>
-      <c r="D49" t="n" s="14">
+      <c r="D51" t="n" s="26">
         <v>9999999.0</v>
       </c>
-      <c r="E49" t="s" s="13">
+      <c r="E51" t="s" s="25">
         <v>19</v>
       </c>
-      <c r="F49" t="n" s="17">
-        <v>177.78799438476562</v>
-      </c>
-    </row>
-    <row r="50"/>
-    <row r="51">
-      <c r="A51" t="s">
+      <c r="F51" t="n" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52"/>
+    <row r="53">
+      <c r="A53" t="s">
         <v>20</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>21</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>22</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>23</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E53" t="s">
         <v>24</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F53" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B53" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>20.000425280445473</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.52358649911387</v>
-      </c>
-      <c r="E53" t="n">
-        <v>20.000425280445473</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="B54" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>39.99998500819576</v>
+        <v>0.0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.523598991986449</v>
+        <v>0.0</v>
       </c>
       <c r="E54" t="n">
-        <v>19.99955973087185</v>
+        <v>0.0</v>
       </c>
       <c r="F54" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="B55" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="C55" t="n">
-        <v>29.99971137071545</v>
+        <v>26.419689627245813</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7853981633974483</v>
+        <v>-1.0563450137358688</v>
       </c>
       <c r="E55" t="n">
-        <v>13.482675472070188</v>
+        <v>26.419689627245813</v>
       </c>
       <c r="F55" t="n">
         <v>1.0</v>
@@ -33494,979 +35589,1074 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.0</v>
+        <v>48.0</v>
       </c>
       <c r="B56" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="C56" t="n">
-        <v>50.0</v>
+        <v>15.811388300841896</v>
       </c>
       <c r="D56" t="n">
-        <v>3.141592653589793</v>
+        <v>-1.2490457723982544</v>
       </c>
       <c r="E56" t="n">
-        <v>74.30533370299497</v>
+        <v>11.313708498984761</v>
       </c>
       <c r="F56" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="B57" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="C57" t="n">
-        <v>10.0</v>
+        <v>22.02271554554524</v>
       </c>
       <c r="D57" t="n">
-        <v>3.141592653589793</v>
+        <v>-3.096169374168216</v>
       </c>
       <c r="E57" t="n">
-        <v>40.0</v>
+        <v>30.4138126514911</v>
       </c>
       <c r="F57" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>31.78049716414141</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.919510751684313</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12.041594578792296</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>21.633307652783937</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.5535900500422257</v>
+      </c>
+      <c r="E59" t="n">
+        <v>13.92838827718412</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>38.28837943815329</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.4301335278502854</v>
+      </c>
+      <c r="E60" t="n">
+        <v>17.029386365926403</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>31.32091952673165</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.8622531212727638</v>
+      </c>
+      <c r="E61" t="n">
+        <v>20.615528128088304</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>24.73863375370596</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.8157749899217608</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6.708203932499369</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>9.433981132056603</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.0121970114513341</v>
+      </c>
+      <c r="E63" t="n">
+        <v>19.4164878389476</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B58" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="13">
+      <c r="B64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9.433981132056603</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="25">
         <v>27</v>
       </c>
-      <c r="B59" s="17" t="n">
-        <f>SUM(B52:B58)</f>
-        <v>15.0</v>
-      </c>
-      <c r="E59" s="17" t="n">
-        <f>SUM(E52:E58)</f>
-        <v>177.7879941863825</v>
-      </c>
-    </row>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63">
-      <c r="A63" t="s" s="13">
+      <c r="B65" s="30" t="n">
+        <f>SUM(B54:B64)</f>
+        <v>154.0</v>
+      </c>
+      <c r="E65" s="30" t="n">
+        <f>SUM(E54:E64)</f>
+        <v>167.32078103121637</v>
+      </c>
+    </row>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69">
+      <c r="A69" t="s" s="25">
         <v>10</v>
       </c>
-      <c r="B63" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C63" t="s" s="13">
+      <c r="B69" t="n" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="C69" t="s" s="25">
         <v>11</v>
       </c>
-      <c r="D63" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="E63" t="s" s="13">
+      <c r="D69" t="n" s="26">
+        <v>30.0</v>
+      </c>
+      <c r="E69" t="s" s="25">
         <v>12</v>
       </c>
-      <c r="F63" t="n" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="13">
+      <c r="F69" t="n" s="26">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="25">
         <v>13</v>
       </c>
-      <c r="B64" t="n" s="14">
+      <c r="B70" t="n" s="26">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="25">
+        <v>14</v>
+      </c>
+      <c r="B71" t="n" s="26">
         <v>3.0</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="13">
-        <v>14</v>
-      </c>
-      <c r="B65" t="n" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="C65" t="s" s="13">
+      <c r="C71" t="s" s="25">
         <v>15</v>
       </c>
-      <c r="D65" t="n" s="14">
-        <v>20.0</v>
-      </c>
-      <c r="E65" t="s" s="13">
+      <c r="D71" t="n" s="26">
+        <v>160.0</v>
+      </c>
+      <c r="E71" t="s" s="25">
         <v>16</v>
       </c>
-      <c r="F65" t="n" s="17">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="13">
+      <c r="F71" t="n" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="25">
         <v>17</v>
       </c>
-      <c r="B66" t="n" s="14">
-        <v>22.505352935791016</v>
-      </c>
-      <c r="C66" t="s" s="13">
+      <c r="B72" t="n" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="C72" t="s" s="25">
         <v>18</v>
       </c>
-      <c r="D66" t="n" s="14">
+      <c r="D72" t="n" s="26">
         <v>9999999.0</v>
       </c>
-      <c r="E66" t="s" s="13">
+      <c r="E72" t="s" s="25">
         <v>19</v>
       </c>
-      <c r="F66" t="n" s="17">
-        <v>125.26764678955078</v>
-      </c>
-    </row>
-    <row r="67"/>
-    <row r="68">
-      <c r="A68" t="s">
+      <c r="F72" t="n" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73"/>
+    <row r="74">
+      <c r="A74" t="s">
         <v>20</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B74" t="s">
         <v>21</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C74" t="s">
         <v>22</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D74" t="s">
         <v>23</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E74" t="s">
         <v>24</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F74" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>29.99971137071545</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-2.356194490192345</v>
-      </c>
-      <c r="E70" t="n">
-        <v>29.99971137071545</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>39.99998500819576</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-2.6179936616033443</v>
-      </c>
-      <c r="E71" t="n">
-        <v>13.482675472070188</v>
-      </c>
-      <c r="F71" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B72" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3.141592653589793</v>
-      </c>
-      <c r="E72" t="n">
-        <v>25.217036237882557</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>20.000425280445473</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-2.618006154475923</v>
-      </c>
-      <c r="E73" t="n">
-        <v>34.174802074743624</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B74" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>3.141592653589793</v>
-      </c>
-      <c r="E74" t="n">
-        <v>12.393426825883394</v>
-      </c>
-      <c r="F74" t="n">
-        <v>4.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>23.08679276123039</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.08673833867598511</v>
+      </c>
+      <c r="E76" t="n">
+        <v>23.08679276123039</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>14.7648230602334</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.4939413689195812</v>
+      </c>
+      <c r="E77" t="n">
+        <v>11.180339887498949</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>30.479501308256342</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.8550527371260165</v>
+      </c>
+      <c r="E78" t="n">
+        <v>17.46424919657298</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.060753653048625</v>
+      </c>
+      <c r="E79" t="n">
+        <v>36.6742416417845</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>23.08679276123039</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.833539872566017</v>
+      </c>
+      <c r="E80" t="n">
+        <v>23.769728648009426</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>13.892443989449804</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-2.0988707752212563</v>
+      </c>
+      <c r="E81" t="n">
+        <v>24.20743687382041</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="E82" t="n">
+        <v>8.06225774829855</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E75" t="n">
+      <c r="B83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="25">
+        <v>27</v>
+      </c>
+      <c r="B84" s="30" t="n">
+        <f>SUM(B75:B83)</f>
+        <v>152.0</v>
+      </c>
+      <c r="E84" s="30" t="n">
+        <f>SUM(E75:E83)</f>
+        <v>152.44504675721518</v>
+      </c>
+    </row>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88">
+      <c r="A88" t="s" s="25">
+        <v>10</v>
+      </c>
+      <c r="B88" t="n" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="C88" t="s" s="25">
+        <v>11</v>
+      </c>
+      <c r="D88" t="n" s="26">
+        <v>30.0</v>
+      </c>
+      <c r="E88" t="s" s="25">
+        <v>12</v>
+      </c>
+      <c r="F88" t="n" s="26">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="25">
+        <v>13</v>
+      </c>
+      <c r="B89" t="n" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="25">
+        <v>14</v>
+      </c>
+      <c r="B90" t="n" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="C90" t="s" s="25">
+        <v>15</v>
+      </c>
+      <c r="D90" t="n" s="26">
+        <v>160.0</v>
+      </c>
+      <c r="E90" t="s" s="25">
+        <v>16</v>
+      </c>
+      <c r="F90" t="n" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="25">
+        <v>17</v>
+      </c>
+      <c r="B91" t="n" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="D91" t="n" s="26">
+        <v>9999999.0</v>
+      </c>
+      <c r="E91" t="s" s="25">
+        <v>19</v>
+      </c>
+      <c r="F91" t="n" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92"/>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>17.204650534085253</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9505468408120751</v>
+      </c>
+      <c r="E95" t="n">
+        <v>17.204650534085253</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>17.26267650163207</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.396124127786657</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7.615773105863909</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E97" t="n">
+        <v>8.54400374531753</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>18.110770276274835</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.6814535479687924</v>
+      </c>
+      <c r="E98" t="n">
+        <v>7.280109889280518</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
         <v>10.0</v>
       </c>
-      <c r="F75" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="B76" s="17" t="n">
-        <f>SUM(B69:B75)</f>
-        <v>15.0</v>
-      </c>
-      <c r="E76" s="17" t="n">
-        <f>SUM(E69:E75)</f>
-        <v>125.26765198129522</v>
-      </c>
-    </row>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80">
-      <c r="A80" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="B80" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C80" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D80" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="E80" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="F80" t="n" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="B81" t="n" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="13">
-        <v>14</v>
-      </c>
-      <c r="B82" t="n" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="C82" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="D82" t="n" s="14">
+      <c r="B99" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>28.319604517012593</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.4061528859142878</v>
+      </c>
+      <c r="E99" t="n">
+        <v>19.026297590440446</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>30.870698080866262</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.7069224384405484</v>
+      </c>
+      <c r="E100" t="n">
+        <v>9.219544457292887</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>12.041594578792296</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-3.058451421701352</v>
+      </c>
+      <c r="E101" t="n">
+        <v>21.2602916254693</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
         <v>20.0</v>
       </c>
-      <c r="E82" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="F82" t="n" s="17">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="13">
-        <v>17</v>
-      </c>
-      <c r="B83" t="n" s="14">
-        <v>23.630831298828124</v>
-      </c>
-      <c r="C83" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="D83" t="n" s="14">
-        <v>9999999.0</v>
-      </c>
-      <c r="E83" t="s" s="13">
-        <v>19</v>
-      </c>
-      <c r="F83" t="n" s="17">
-        <v>181.54156494140625</v>
-      </c>
-    </row>
-    <row r="84"/>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C87" t="n">
-        <v>30.000329066007488</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2.879781417343287</v>
-      </c>
-      <c r="E87" t="n">
-        <v>30.000329066007488</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B88" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>39.99998500819576</v>
-      </c>
-      <c r="D88" t="n">
-        <v>2.6179936616033443</v>
-      </c>
-      <c r="E88" t="n">
-        <v>13.48201679550272</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B89" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>20.000425280445473</v>
-      </c>
-      <c r="D89" t="n">
-        <v>2.618006154475923</v>
-      </c>
-      <c r="E89" t="n">
-        <v>19.99955973087185</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B90" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>68.05965711013731</v>
-      </c>
-      <c r="F90" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="B93" s="17" t="n">
-        <f>SUM(B86:B92)</f>
-        <v>15.0</v>
-      </c>
-      <c r="E93" s="17" t="n">
-        <f>SUM(E86:E92)</f>
-        <v>181.54156270251937</v>
-      </c>
-    </row>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97">
-      <c r="A97" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="B97" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C97" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D97" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="E97" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="F97" t="n" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="B98" t="n" s="14">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="13">
-        <v>14</v>
-      </c>
-      <c r="B99" t="n" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="C99" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="D99" t="n" s="14">
-        <v>20.0</v>
-      </c>
-      <c r="E99" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="F99" t="n" s="17">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="13">
-        <v>17</v>
-      </c>
-      <c r="B100" t="n" s="14">
-        <v>22.362647705078125</v>
-      </c>
-      <c r="C100" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="D100" t="n" s="14">
-        <v>9999999.0</v>
-      </c>
-      <c r="E100" t="s" s="13">
-        <v>19</v>
-      </c>
-      <c r="F100" t="n" s="17">
-        <v>118.13238525390625</v>
-      </c>
-    </row>
-    <row r="101"/>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>20</v>
-      </c>
-      <c r="B102" t="s">
-        <v>21</v>
-      </c>
-      <c r="C102" t="s">
-        <v>22</v>
-      </c>
-      <c r="D102" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102" t="s">
-        <v>25</v>
+      <c r="B102" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>32.449961479175904</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-2.5535900500422257</v>
+      </c>
+      <c r="E102" t="n">
+        <v>22.67156809750927</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0</v>
+        <v>29.832867780352597</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0</v>
+        <v>-1.8076450877418169</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0</v>
+        <v>22.825424421026653</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B104" t="n">
-        <v>2.0</v>
+        <v>23.0</v>
       </c>
       <c r="C104" t="n">
-        <v>20.000425280445473</v>
+        <v>22.02271554554524</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.52358649911387</v>
+        <v>-1.6162196062164738</v>
       </c>
       <c r="E104" t="n">
-        <v>20.000425280445473</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="F104" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C105" t="n">
         <v>10.0</v>
       </c>
-      <c r="B105" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>39.99998500819576</v>
-      </c>
       <c r="D105" t="n">
-        <v>-0.523598991986449</v>
+        <v>-2.498091544796509</v>
       </c>
       <c r="E105" t="n">
-        <v>19.99955973087185</v>
+        <v>17.46424919657298</v>
       </c>
       <c r="F105" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>4.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="25">
+        <v>27</v>
+      </c>
+      <c r="B107" s="30" t="n">
+        <f>SUM(B94:B106)</f>
+        <v>154.0</v>
+      </c>
+      <c r="E107" s="30" t="n">
+        <f>SUM(E94:E106)</f>
+        <v>172.3314571201516</v>
+      </c>
+    </row>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111">
+      <c r="A111" t="s" s="25">
+        <v>10</v>
+      </c>
+      <c r="B111" t="n" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="C111" t="s" s="25">
+        <v>11</v>
+      </c>
+      <c r="D111" t="n" s="26">
+        <v>30.0</v>
+      </c>
+      <c r="E111" t="s" s="25">
+        <v>12</v>
+      </c>
+      <c r="F111" t="n" s="26">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="25">
+        <v>13</v>
+      </c>
+      <c r="B112" t="n" s="26">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="25">
+        <v>14</v>
+      </c>
+      <c r="B113" t="n" s="26">
         <v>5.0</v>
       </c>
-      <c r="C106" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>25.217036237882557</v>
-      </c>
-      <c r="F106" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>30.000329066007488</v>
-      </c>
-      <c r="D107" t="n">
-        <v>-0.26181123624650626</v>
-      </c>
-      <c r="E107" t="n">
-        <v>22.41025836490556</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B108" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C108" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E108" t="n">
-        <v>20.505114758307275</v>
-      </c>
-      <c r="F108" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="B110" s="17" t="n">
-        <f>SUM(B103:B109)</f>
-        <v>15.0</v>
-      </c>
-      <c r="E110" s="17" t="n">
-        <f>SUM(E103:E109)</f>
-        <v>118.1323943724127</v>
-      </c>
-    </row>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
+      <c r="C113" t="s" s="25">
+        <v>15</v>
+      </c>
+      <c r="D113" t="n" s="26">
+        <v>160.0</v>
+      </c>
+      <c r="E113" t="s" s="25">
+        <v>16</v>
+      </c>
+      <c r="F113" t="n" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="114">
-      <c r="A114" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="B114" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C114" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D114" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="E114" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="F114" t="n" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="B115" t="n" s="14">
-        <v>2.0</v>
-      </c>
-    </row>
+      <c r="A114" t="s" s="25">
+        <v>17</v>
+      </c>
+      <c r="B114" t="n" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="C114" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="D114" t="n" s="26">
+        <v>9999999.0</v>
+      </c>
+      <c r="E114" t="s" s="25">
+        <v>19</v>
+      </c>
+      <c r="F114" t="n" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="115"/>
     <row r="116">
-      <c r="A116" t="s" s="13">
-        <v>14</v>
-      </c>
-      <c r="B116" t="n" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="C116" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="D116" t="n" s="14">
-        <v>20.0</v>
-      </c>
-      <c r="E116" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="F116" t="n" s="17">
-        <v>15.0</v>
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="13">
-        <v>17</v>
-      </c>
-      <c r="B117" t="n" s="14">
-        <v>23.555759887695313</v>
-      </c>
-      <c r="C117" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="D117" t="n" s="14">
-        <v>9999999.0</v>
-      </c>
-      <c r="E117" t="s" s="13">
-        <v>19</v>
-      </c>
-      <c r="F117" t="n" s="17">
-        <v>177.78799438476562</v>
-      </c>
-    </row>
-    <row r="118"/>
+      <c r="A117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>34.655446902326915</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.7649928327109102</v>
+      </c>
+      <c r="E118" t="n">
+        <v>34.655446902326915</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
     <row r="119">
-      <c r="A119" t="s">
-        <v>20</v>
-      </c>
-      <c r="B119" t="s">
-        <v>21</v>
-      </c>
-      <c r="C119" t="s">
-        <v>22</v>
-      </c>
-      <c r="D119" t="s">
-        <v>23</v>
-      </c>
-      <c r="E119" t="s">
-        <v>24</v>
-      </c>
-      <c r="F119" t="s">
-        <v>25</v>
+      <c r="A119" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>20.808652046684813</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-2.185459278717062</v>
+      </c>
+      <c r="E119" t="n">
+        <v>37.656340767525464</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0</v>
+        <v>29.966648127543394</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0</v>
+        <v>-2.019519670805618</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8.0</v>
+        <v>36.0</v>
       </c>
       <c r="B121" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C121" t="n">
-        <v>20.000425280445473</v>
+        <v>43.93176527297759</v>
       </c>
       <c r="D121" t="n">
-        <v>2.618006154475923</v>
+        <v>-2.4206213296178984</v>
       </c>
       <c r="E121" t="n">
-        <v>20.000425280445473</v>
+        <v>20.09975124224178</v>
       </c>
       <c r="F121" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="B122" t="n">
-        <v>2.0</v>
+        <v>30.0</v>
       </c>
       <c r="C122" t="n">
-        <v>39.99998500819576</v>
+        <v>21.02379604162864</v>
       </c>
       <c r="D122" t="n">
-        <v>2.6179936616033443</v>
+        <v>-2.6992184306130484</v>
       </c>
       <c r="E122" t="n">
-        <v>19.99955973087185</v>
+        <v>24.413111231467404</v>
       </c>
       <c r="F122" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>19.0</v>
+        <v>29.0</v>
       </c>
       <c r="B123" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C123" t="n">
-        <v>29.99971137071545</v>
+        <v>29.120439557122072</v>
       </c>
       <c r="D123" t="n">
-        <v>2.356194490192345</v>
+        <v>-2.8632929945846817</v>
       </c>
       <c r="E123" t="n">
-        <v>13.482675472070188</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="F123" t="n">
         <v>1.0</v>
@@ -34474,320 +36664,155 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
       <c r="B124" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C124" t="n">
-        <v>50.0</v>
+        <v>32.0624390837628</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0</v>
+        <v>-3.079173843593836</v>
       </c>
       <c r="E124" t="n">
-        <v>74.30533370299497</v>
+        <v>7.211102550927978</v>
       </c>
       <c r="F124" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.0</v>
+        <v>50.0</v>
       </c>
       <c r="B125" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="C125" t="n">
-        <v>10.0</v>
+        <v>26.1725046566048</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0</v>
+        <v>3.026716048172894</v>
       </c>
       <c r="E125" t="n">
-        <v>40.0</v>
+        <v>7.810249675906654</v>
       </c>
       <c r="F125" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>15.811388300841896</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.819842099193151</v>
+      </c>
+      <c r="E126" t="n">
+        <v>11.180339887498949</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>31.32091952673165</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.2793395323170296</v>
+      </c>
+      <c r="E127" t="n">
+        <v>34.655446902326915</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>42.20189569201838</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.9367736071314745</v>
+      </c>
+      <c r="E128" t="n">
+        <v>16.492422502470642</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>8.06225774829855</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.6951513213416582</v>
+      </c>
+      <c r="E129" t="n">
+        <v>36.76955262170047</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="13">
+      <c r="B130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>8.06225774829855</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="25">
         <v>27</v>
       </c>
-      <c r="B127" s="17" t="n">
-        <f>SUM(B120:B126)</f>
-        <v>15.0</v>
-      </c>
-      <c r="E127" s="17" t="n">
-        <f>SUM(E120:E126)</f>
-        <v>177.7879941863825</v>
-      </c>
-    </row>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131">
-      <c r="A131" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="B131" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C131" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D131" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="E131" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="F131" t="n" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="B132" t="n" s="14">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="13">
-        <v>14</v>
-      </c>
-      <c r="B133" t="n" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="C133" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="D133" t="n" s="14">
-        <v>20.0</v>
-      </c>
-      <c r="E133" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="F133" t="n" s="17">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="13">
-        <v>17</v>
-      </c>
-      <c r="B134" t="n" s="14">
-        <v>22.505352935791016</v>
-      </c>
-      <c r="C134" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="D134" t="n" s="14">
-        <v>9999999.0</v>
-      </c>
-      <c r="E134" t="s" s="13">
-        <v>19</v>
-      </c>
-      <c r="F134" t="n" s="17">
-        <v>125.26764678955078</v>
-      </c>
-    </row>
-    <row r="135"/>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>20</v>
-      </c>
-      <c r="B136" t="s">
-        <v>21</v>
-      </c>
-      <c r="C136" t="s">
-        <v>22</v>
-      </c>
-      <c r="D136" t="s">
-        <v>23</v>
-      </c>
-      <c r="E136" t="s">
-        <v>24</v>
-      </c>
-      <c r="F136" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C138" t="n">
-        <v>29.99971137071545</v>
-      </c>
-      <c r="D138" t="n">
-        <v>-0.7853981633974483</v>
-      </c>
-      <c r="E138" t="n">
-        <v>29.99971137071545</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B139" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C139" t="n">
-        <v>39.99998500819576</v>
-      </c>
-      <c r="D139" t="n">
-        <v>-0.523598991986449</v>
-      </c>
-      <c r="E139" t="n">
-        <v>13.482675472070188</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B140" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C140" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>25.217036237882557</v>
-      </c>
-      <c r="F140" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B141" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C141" t="n">
-        <v>20.000425280445473</v>
-      </c>
-      <c r="D141" t="n">
-        <v>-0.52358649911387</v>
-      </c>
-      <c r="E141" t="n">
-        <v>34.174802074743624</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B142" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C142" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>12.393426825883394</v>
-      </c>
-      <c r="F142" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="B144" s="17" t="n">
-        <f>SUM(B137:B143)</f>
-        <v>15.0</v>
-      </c>
-      <c r="E144" s="17" t="n">
-        <f>SUM(E137:E143)</f>
-        <v>125.26765198129522</v>
+      <c r="B131" s="30" t="n">
+        <f>SUM(B117:B130)</f>
+        <v>157.0</v>
+      </c>
+      <c r="E131" s="30" t="n">
+        <f>SUM(E117:E130)</f>
+        <v>258.11128279195</v>
       </c>
     </row>
   </sheetData>
